--- a/documents/Projekt.xlsx
+++ b/documents/Projekt.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoX\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilengstrom/Documents/Emil och Malin/Studier/YH Linköping/Inbyggda System/GitHub/MarsRover3/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -203,12 +206,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,18 +220,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,23 +265,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -300,17 +286,34 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,13 +329,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A3:E34" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A3:E34" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A3:E34"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Kategori" dataDxfId="2"/>
+    <tableColumn id="1" name="Kategori" dataDxfId="1"/>
     <tableColumn id="2" name="Beskrivning"/>
     <tableColumn id="3" name="Ansvarig"/>
-    <tableColumn id="4" name="Prioritet" dataDxfId="1"/>
+    <tableColumn id="4" name="Prioritet" dataDxfId="0"/>
     <tableColumn id="5" name="Sign"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -602,29 +605,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -641,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -655,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -666,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -677,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -688,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,18 +699,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -721,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -732,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -743,16 +746,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -766,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -780,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -802,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -813,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -824,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -835,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -846,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -857,16 +860,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>16</v>
       </c>
@@ -877,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>21</v>
       </c>
@@ -885,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
@@ -896,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -904,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>36</v>
       </c>

--- a/documents/Projekt.xlsx
+++ b/documents/Projekt.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilengstrom/Documents/Emil och Malin/Studier/YH Linköping/Inbyggda System/GitHub/MarsRover3/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoX\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -206,12 +203,12 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -220,18 +217,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,6 +262,23 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -286,34 +300,17 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,13 +326,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A3:E34" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A3:E34" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="A3:E34"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Kategori" dataDxfId="1"/>
+    <tableColumn id="1" name="Kategori" dataDxfId="2"/>
     <tableColumn id="2" name="Beskrivning"/>
     <tableColumn id="3" name="Ansvarig"/>
-    <tableColumn id="4" name="Prioritet" dataDxfId="0"/>
+    <tableColumn id="4" name="Prioritet" dataDxfId="1"/>
     <tableColumn id="5" name="Sign"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -605,29 +602,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -658,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -669,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -680,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -691,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,18 +696,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -724,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -735,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -746,16 +743,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -769,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -783,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -794,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -805,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -816,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -827,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -838,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -849,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -860,16 +857,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>16</v>
       </c>
@@ -880,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
@@ -888,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
@@ -899,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -907,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>36</v>
       </c>

--- a/documents/Projekt.xlsx
+++ b/documents/Projekt.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kravspecifikation" sheetId="1" r:id="rId1"/>
+    <sheet name="Testplan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
   <si>
     <t>Styrsystem</t>
   </si>
@@ -150,13 +151,208 @@
   </si>
   <si>
     <t>Kravspec.</t>
+  </si>
+  <si>
+    <t>Testplan</t>
+  </si>
+  <si>
+    <t>Testdatum</t>
+  </si>
+  <si>
+    <t>Styrsystem, 1</t>
+  </si>
+  <si>
+    <t>Interface, 2</t>
+  </si>
+  <si>
+    <t>Hårdvara, 3</t>
+  </si>
+  <si>
+    <t>Övrigt, 4</t>
+  </si>
+  <si>
+    <t>Testgenomförande</t>
+  </si>
+  <si>
+    <t>Ger manuellt kommando.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Testprioritet</t>
+  </si>
+  <si>
+    <t>Roboten ska klara av att åka framåt</t>
+  </si>
+  <si>
+    <t>Roboten ska klara av att åka bakåt</t>
+  </si>
+  <si>
+    <t>Roboten ska klara av att åka höger</t>
+  </si>
+  <si>
+    <t>Roboten ska klara av att åka vänster</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Ska kunna följa linje vinklad till höger</t>
+  </si>
+  <si>
+    <t>Ska kunna följa linje vinklad till vänster</t>
+  </si>
+  <si>
+    <t>Ska kunna följa rak linje</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>Ska kunna stanna vid tvär linje</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>Genomförs då roboten är satt i autonomnt läge.</t>
+  </si>
+  <si>
+    <t>Delkategori</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Stanna för framförvarande objekt</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Genomförs då roboten är satt i autonomnt läge med ett placerat hinder i robotens färdväg.</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genom den tillhörande knappsatsen ska man på ett användarvänligt sätt kunna navigera i menysystem. </t>
+  </si>
+  <si>
+    <t>Starta en funktion i menysystemet.</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Genomföra funktionstest av komponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vid kommando kunna genomföra en dans på hjul </t>
+  </si>
+  <si>
+    <t>Vid kommando kunna genomföra en dans på hjul</t>
+  </si>
+  <si>
+    <t>Dansfunktionen ska kunna aktiveras via menysystemet.</t>
+  </si>
+  <si>
+    <t>Dansfunktionen ska kunna aktiveras via tvärgående linje.</t>
+  </si>
+  <si>
+    <t>Dansfunktionen ska kunna aktiveras via ir kontroll.</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>Ska kunna visa nuvarande hastighet via menysystemet</t>
+  </si>
+  <si>
+    <t>Genom att göra bilen framåt.</t>
+  </si>
+  <si>
+    <t>Vid aktivering av funktioner ger systemet en ljudåterkoppling</t>
+  </si>
+  <si>
+    <t>Ska kunna navigera runt i de olika menyerna tillhörande LCD-displayen på ett användarvänligt sätt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +381,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,11 +461,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -329,13 +649,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A3:E34" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A3:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="A4:E35" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A4:E35"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Kategori" dataDxfId="1"/>
+    <tableColumn id="1" name="Kategori" dataDxfId="8"/>
     <tableColumn id="2" name="Beskrivning"/>
     <tableColumn id="3" name="Ansvarig"/>
-    <tableColumn id="4" name="Prioritet" dataDxfId="0"/>
+    <tableColumn id="4" name="Prioritet" dataDxfId="7"/>
+    <tableColumn id="5" name="Sign"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell13" displayName="Tabell13" ref="B3:H36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B3:H36"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Kategori" dataDxfId="1"/>
+    <tableColumn id="8" name="Delkategori" dataDxfId="0"/>
+    <tableColumn id="2" name="Beskrivning"/>
+    <tableColumn id="3" name="Testgenomförande"/>
+    <tableColumn id="4" name="Testprioritet" dataDxfId="3"/>
+    <tableColumn id="6" name="Testdatum" dataDxfId="2"/>
     <tableColumn id="5" name="Sign"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -608,10 +944,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E34"/>
+  <dimension ref="A3:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,48 +958,37 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -671,62 +996,62 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -737,7 +1062,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -747,7 +1072,15 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="6"/>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="6"/>
@@ -756,25 +1089,14 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -784,8 +1106,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -796,7 +1121,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -807,10 +1132,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -818,10 +1143,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -829,7 +1154,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -840,7 +1165,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -851,17 +1176,25 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="6"/>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
@@ -870,38 +1203,33 @@
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>35</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>32</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -909,9 +1237,17 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>3</v>
       </c>
     </row>
@@ -922,4 +1258,531 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H36"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="6" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>